--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -1,107 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinshengnan/PycharmProjects/webAutomation/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856AC30-17B4-5644-B653-150921B1D11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38960" yWindow="12400" windowWidth="20840" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16140" windowWidth="20840" xWindow="38960" yWindow="12400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">实际结果 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行一次输入操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Helvetica"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,29 +59,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -208,14 +150,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1322,64 +1256,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="194">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col customWidth="1" max="6" min="6" style="4" width="16.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row customHeight="1" ht="14" r="1" s="4">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>元素路径</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>输入内容</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">实际结果 </t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14" r="2" s="4">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>执行一次输入操作</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -1,49 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinshengnan/PycharmProjects/webAutomation/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B162224-411A-014E-8DD8-A8342E756A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16140" windowWidth="20840" xWindow="38960" yWindow="12400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>定位方法</t>
+  </si>
+  <si>
+    <t>元素路径</t>
+  </si>
+  <si>
+    <t>输入内容</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际结果 </t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,29 +99,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -150,6 +191,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,98 +1305,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="194">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="4" width="16.6640625"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14" r="1" s="4">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>关键字</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>定位方法</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>元素路径</t>
-        </is>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>输入内容</t>
-        </is>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">实际结果 </t>
-        </is>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="14" r="2" s="4">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>input</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>xxxx</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>执行一次输入操作</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>